--- a/高德地图API POI分类编码表.xlsx
+++ b/高德地图API POI分类编码表.xlsx
@@ -15,6 +15,7 @@
     <sheet name="变更履历" sheetId="2" r:id="rId1"/>
     <sheet name="说明" sheetId="3" r:id="rId2"/>
     <sheet name="POI分类与编码（中英文）" sheetId="1" r:id="rId3"/>
+    <sheet name="已采集的数据" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'POI分类与编码（中英文）'!$A$1:$H$870</definedName>
@@ -22,16 +23,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">变更履历!$A$1:$D$29</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5806" uniqueCount="2507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6590" uniqueCount="2540">
   <si>
     <t>序号</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -6229,9 +6225,6 @@
     <t>060308</t>
   </si>
   <si>
-    <t>060400</t>
-  </si>
-  <si>
     <t>060401</t>
   </si>
   <si>
@@ -6296,9 +6289,6 @@
   </si>
   <si>
     <t>060606</t>
-  </si>
-  <si>
-    <t>060700</t>
   </si>
   <si>
     <t>060701</t>
@@ -7834,11 +7824,139 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>190301</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>190308</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>190304</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>141200</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>190301</t>
+    <t>170000</t>
+  </si>
+  <si>
+    <t>Farming，Forestry，Animal Husbandry and Fishery Base</t>
+  </si>
+  <si>
+    <t>Other Farming，Forestry，Animal Husbandry and Fishery Base</t>
+  </si>
+  <si>
+    <t>Fishing Farm</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>Forest Farm</t>
+  </si>
+  <si>
+    <t>Pasture</t>
+  </si>
+  <si>
+    <t>Poultry Breeding Base</t>
+  </si>
+  <si>
+    <t>Vegetable Planting Base</t>
+  </si>
+  <si>
+    <t>Fruit Cultivation Base</t>
+  </si>
+  <si>
+    <t>Flower Nurserey Base</t>
+  </si>
+  <si>
+    <t>180000</t>
+  </si>
+  <si>
+    <t>060400</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>060700</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>120100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industrial Park</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>120200</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Building</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>120300</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Residential Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>120301</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>130000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Governmental &amp; Social Groups Related</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>141200</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Museum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>150500</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>150900</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parking Lot</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>170200</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>150700</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>190309</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The hot names</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -8316,13 +8434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8700,7 +8818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8891,8 +9009,107 @@
     <xf numFmtId="49" fontId="21" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -8996,7 +9213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9031,7 +9248,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9343,7 +9560,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="C7" s="22">
         <v>41842</v>
@@ -9371,7 +9588,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="C9" s="22">
         <v>41968</v>
@@ -9385,7 +9602,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="C10" s="22">
         <v>41988</v>
@@ -9399,13 +9616,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="C11" s="22">
         <v>41989</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.15">
@@ -9413,13 +9630,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="C12" s="22">
         <v>42037</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.15">
@@ -9427,7 +9644,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="C13" s="22">
         <v>42040</v>
@@ -9441,7 +9658,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="C14" s="22">
         <v>42081</v>
@@ -9455,7 +9672,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="C15" s="22">
         <v>42083</v>
@@ -9469,7 +9686,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="C16" s="22">
         <v>42110</v>
@@ -9483,13 +9700,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="C17" s="22">
         <v>42201</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.15">
@@ -9497,7 +9714,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="C18" s="22">
         <v>42212</v>
@@ -9511,7 +9728,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="C19" s="22">
         <v>42212</v>
@@ -9525,7 +9742,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="C20" s="22">
         <v>42261</v>
@@ -9539,7 +9756,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="C21" s="26">
         <v>42459</v>
@@ -9553,7 +9770,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="C22" s="26">
         <v>42513</v>
@@ -9567,7 +9784,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="C23" s="26">
         <v>42543</v>
@@ -9581,7 +9798,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="C24" s="26">
         <v>42627</v>
@@ -9595,7 +9812,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="C25" s="26">
         <v>42689</v>
@@ -9609,7 +9826,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="C26" s="26">
         <v>42731</v>
@@ -9623,7 +9840,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="C27" s="26">
         <v>42873</v>
@@ -10186,7 +10403,7 @@
     <row r="3" spans="1:256" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
       <c r="B3" s="58" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
@@ -10704,7 +10921,7 @@
     <row r="5" spans="1:256" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="55"/>
       <c r="B5" s="60" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
@@ -10980,10 +11197,10 @@
   <dimension ref="A1:H871"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G784" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F565" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="E838" sqref="E838"/>
+      <selection pane="bottomRight" activeCell="G594" sqref="G594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -11342,7 +11559,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>14</v>
@@ -11351,7 +11568,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>877</v>
@@ -11360,7 +11577,7 @@
         <v>879</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -11634,7 +11851,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>38</v>
@@ -11654,25 +11871,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>877</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -11767,7 +11984,7 @@
         <v>40</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>901</v>
@@ -12027,7 +12244,7 @@
         <v>52</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>901</v>
@@ -12850,7 +13067,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>39</v>
@@ -12859,7 +13076,7 @@
         <v>91</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>901</v>
@@ -12868,7 +13085,7 @@
         <v>955</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
@@ -13379,7 +13596,7 @@
         <v>120</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="F92" s="15" t="s">
         <v>901</v>
@@ -13388,7 +13605,7 @@
         <v>984</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
@@ -13526,7 +13743,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>39</v>
@@ -13552,25 +13769,25 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>901</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
@@ -13578,25 +13795,25 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>901</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.15">
@@ -13604,25 +13821,25 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>901</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.15">
@@ -13630,25 +13847,25 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>901</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="H102" s="15" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.15">
@@ -13656,25 +13873,25 @@
         <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>901</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="H103" s="15" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
@@ -13682,25 +13899,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>901</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
@@ -13708,25 +13925,25 @@
         <v>104</v>
       </c>
       <c r="B105" s="46" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>901</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
@@ -13734,25 +13951,25 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>901</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
@@ -13760,25 +13977,25 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>901</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
@@ -14289,7 +14506,7 @@
         <v>147</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="F127" s="15" t="s">
         <v>1009</v>
@@ -14549,7 +14766,7 @@
         <v>159</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>1009</v>
@@ -15372,7 +15589,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>145</v>
@@ -15381,7 +15598,7 @@
         <v>198</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="F169" s="15" t="s">
         <v>1009</v>
@@ -15390,7 +15607,7 @@
         <v>1065</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.15">
@@ -15901,7 +16118,7 @@
         <v>227</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="F189" s="15" t="s">
         <v>1009</v>
@@ -15910,7 +16127,7 @@
         <v>1094</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.15">
@@ -16074,25 +16291,25 @@
         <v>195</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>145</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="F196" s="15" t="s">
         <v>1009</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.15">
@@ -16100,25 +16317,25 @@
         <v>196</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="F197" s="15" t="s">
         <v>1009</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.15">
@@ -16126,25 +16343,25 @@
         <v>197</v>
       </c>
       <c r="B198" s="42" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="E198" s="15" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="F198" s="15" t="s">
         <v>1009</v>
       </c>
       <c r="G198" s="15" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="H198" s="15" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.15">
@@ -16152,25 +16369,25 @@
         <v>198</v>
       </c>
       <c r="B199" s="42" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="C199" s="5" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D199" s="15" t="s">
         <v>2439</v>
       </c>
-      <c r="D199" s="15" t="s">
-        <v>2441</v>
-      </c>
       <c r="E199" s="15" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="F199" s="15" t="s">
         <v>1009</v>
       </c>
       <c r="G199" s="15" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="H199" s="15" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.15">
@@ -16178,25 +16395,25 @@
         <v>199</v>
       </c>
       <c r="B200" s="42" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C200" s="5" t="s">
         <v>2437</v>
       </c>
-      <c r="C200" s="5" t="s">
-        <v>2439</v>
-      </c>
       <c r="D200" s="15" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="E200" s="15" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="F200" s="15" t="s">
         <v>1009</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="H200" s="15" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.15">
@@ -16204,25 +16421,25 @@
         <v>200</v>
       </c>
       <c r="B201" s="42" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="E201" s="15" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="F201" s="15" t="s">
         <v>1009</v>
       </c>
       <c r="G201" s="15" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="H201" s="15" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="202" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -16230,25 +16447,25 @@
         <v>201</v>
       </c>
       <c r="B202" s="47" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C202" s="48" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D202" s="48" t="s">
         <v>2491</v>
       </c>
-      <c r="C202" s="48" t="s">
+      <c r="E202" s="48" t="s">
         <v>2492</v>
       </c>
-      <c r="D202" s="48" t="s">
+      <c r="F202" s="48" t="s">
         <v>2493</v>
       </c>
-      <c r="E202" s="48" t="s">
+      <c r="G202" s="48" t="s">
         <v>2494</v>
       </c>
-      <c r="F202" s="48" t="s">
+      <c r="H202" s="48" t="s">
         <v>2495</v>
-      </c>
-      <c r="G202" s="48" t="s">
-        <v>2496</v>
-      </c>
-      <c r="H202" s="48" t="s">
-        <v>2497</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.15">
@@ -16256,25 +16473,25 @@
         <v>202</v>
       </c>
       <c r="B203" s="42" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="E203" s="15" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="F203" s="15" t="s">
         <v>1009</v>
       </c>
       <c r="G203" s="15" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="H203" s="15" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.15">
@@ -16282,25 +16499,25 @@
         <v>203</v>
       </c>
       <c r="B204" s="42" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="E204" s="15" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="F204" s="15" t="s">
         <v>1009</v>
       </c>
       <c r="G204" s="15" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="H204" s="15" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.15">
@@ -18683,7 +18900,7 @@
         <v>331</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="F296" s="5" t="s">
         <v>1190</v>
@@ -18692,7 +18909,7 @@
         <v>1196</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.15">
@@ -18955,29 +19172,29 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A307" s="4">
+    <row r="307" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="96">
         <v>306</v>
       </c>
-      <c r="B307" s="9" t="s">
-        <v>2046</v>
-      </c>
-      <c r="C307" s="5" t="s">
+      <c r="B307" s="95" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C307" s="97" t="s">
         <v>325</v>
       </c>
-      <c r="D307" s="5" t="s">
+      <c r="D307" s="97" t="s">
         <v>342</v>
       </c>
-      <c r="E307" s="5" t="s">
+      <c r="E307" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="F307" s="5" t="s">
+      <c r="F307" s="97" t="s">
         <v>1190</v>
       </c>
-      <c r="G307" s="5" t="s">
+      <c r="G307" s="97" t="s">
         <v>1207</v>
       </c>
-      <c r="H307" s="5" t="s">
+      <c r="H307" s="97" t="s">
         <v>1207</v>
       </c>
     </row>
@@ -18986,7 +19203,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>325</v>
@@ -19012,7 +19229,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>325</v>
@@ -19038,7 +19255,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>325</v>
@@ -19064,7 +19281,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>325</v>
@@ -19090,7 +19307,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>325</v>
@@ -19116,7 +19333,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>325</v>
@@ -19142,7 +19359,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>325</v>
@@ -19168,7 +19385,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>325</v>
@@ -19194,7 +19411,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>325</v>
@@ -19220,7 +19437,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>325</v>
@@ -19246,7 +19463,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>325</v>
@@ -19272,7 +19489,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>325</v>
@@ -19298,7 +19515,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>325</v>
@@ -19324,7 +19541,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>325</v>
@@ -19350,7 +19567,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>325</v>
@@ -19376,7 +19593,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>325</v>
@@ -19402,7 +19619,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>325</v>
@@ -19428,7 +19645,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>325</v>
@@ -19454,7 +19671,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>325</v>
@@ -19480,7 +19697,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>325</v>
@@ -19506,7 +19723,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>325</v>
@@ -19532,7 +19749,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>325</v>
@@ -19558,7 +19775,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>325</v>
@@ -19579,29 +19796,29 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A331" s="4">
+    <row r="331" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A331" s="96">
         <v>330</v>
       </c>
-      <c r="B331" s="9" t="s">
-        <v>2069</v>
-      </c>
-      <c r="C331" s="5" t="s">
+      <c r="B331" s="95" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C331" s="97" t="s">
         <v>325</v>
       </c>
-      <c r="D331" s="5" t="s">
+      <c r="D331" s="97" t="s">
         <v>367</v>
       </c>
-      <c r="E331" s="5" t="s">
+      <c r="E331" s="97" t="s">
         <v>367</v>
       </c>
-      <c r="F331" s="5" t="s">
+      <c r="F331" s="97" t="s">
         <v>1190</v>
       </c>
-      <c r="G331" s="5" t="s">
+      <c r="G331" s="97" t="s">
         <v>1230</v>
       </c>
-      <c r="H331" s="5" t="s">
+      <c r="H331" s="97" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -19610,7 +19827,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>325</v>
@@ -19636,7 +19853,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>325</v>
@@ -19662,7 +19879,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>325</v>
@@ -19688,7 +19905,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>325</v>
@@ -19714,7 +19931,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>325</v>
@@ -19740,7 +19957,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>325</v>
@@ -19766,7 +19983,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>325</v>
@@ -19792,7 +20009,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>325</v>
@@ -19818,7 +20035,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>325</v>
@@ -19844,7 +20061,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>325</v>
@@ -19870,7 +20087,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>325</v>
@@ -19896,7 +20113,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>325</v>
@@ -19922,7 +20139,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>325</v>
@@ -19948,7 +20165,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>325</v>
@@ -19974,7 +20191,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>325</v>
@@ -20000,7 +20217,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>325</v>
@@ -20026,7 +20243,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>325</v>
@@ -20052,7 +20269,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>325</v>
@@ -20078,7 +20295,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>325</v>
@@ -20104,7 +20321,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>325</v>
@@ -20130,7 +20347,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>325</v>
@@ -20156,16 +20373,16 @@
         <v>352</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>325</v>
       </c>
       <c r="D353" s="5" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F353" s="5" t="s">
         <v>1190</v>
@@ -20174,7 +20391,7 @@
         <v>1248</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.15">
@@ -20182,7 +20399,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>325</v>
@@ -20208,7 +20425,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>325</v>
@@ -20234,7 +20451,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>325</v>
@@ -20260,7 +20477,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>325</v>
@@ -20286,7 +20503,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>325</v>
@@ -20312,7 +20529,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="9" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>325</v>
@@ -20338,7 +20555,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>325</v>
@@ -20364,7 +20581,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>325</v>
@@ -20390,7 +20607,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>325</v>
@@ -20416,7 +20633,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>325</v>
@@ -20442,7 +20659,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>325</v>
@@ -20468,7 +20685,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>325</v>
@@ -20494,7 +20711,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>325</v>
@@ -20520,7 +20737,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>325</v>
@@ -20546,7 +20763,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>325</v>
@@ -20555,7 +20772,7 @@
         <v>389</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="F368" s="5" t="s">
         <v>1190</v>
@@ -20564,7 +20781,7 @@
         <v>1252</v>
       </c>
       <c r="H368" s="5" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.15">
@@ -20572,7 +20789,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>325</v>
@@ -20598,7 +20815,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>325</v>
@@ -20624,7 +20841,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>325</v>
@@ -20650,13 +20867,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>325</v>
       </c>
       <c r="D372" s="5" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="E372" s="5" t="s">
         <v>408</v>
@@ -20676,7 +20893,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>325</v>
@@ -20702,7 +20919,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>410</v>
@@ -20728,7 +20945,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>410</v>
@@ -20754,7 +20971,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>410</v>
@@ -20780,7 +20997,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>410</v>
@@ -20789,7 +21006,7 @@
         <v>413</v>
       </c>
       <c r="E377" s="37" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F377" s="5" t="s">
         <v>1271</v>
@@ -20798,7 +21015,7 @@
         <v>1274</v>
       </c>
       <c r="H377" s="38" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.15">
@@ -20806,7 +21023,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>410</v>
@@ -20815,7 +21032,7 @@
         <v>413</v>
       </c>
       <c r="E378" s="37" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F378" s="5" t="s">
         <v>1271</v>
@@ -20824,7 +21041,7 @@
         <v>1274</v>
       </c>
       <c r="H378" s="38" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.15">
@@ -20832,7 +21049,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>410</v>
@@ -20841,7 +21058,7 @@
         <v>413</v>
       </c>
       <c r="E379" s="37" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="F379" s="5" t="s">
         <v>1271</v>
@@ -20850,7 +21067,7 @@
         <v>1274</v>
       </c>
       <c r="H379" s="38" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.15">
@@ -20858,7 +21075,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>410</v>
@@ -20884,7 +21101,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>410</v>
@@ -20910,7 +21127,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>410</v>
@@ -20936,7 +21153,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>410</v>
@@ -20962,7 +21179,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>410</v>
@@ -20988,7 +21205,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>410</v>
@@ -21014,7 +21231,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>410</v>
@@ -21040,7 +21257,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>410</v>
@@ -21066,7 +21283,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>410</v>
@@ -21092,7 +21309,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>410</v>
@@ -21118,7 +21335,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>410</v>
@@ -21144,7 +21361,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>410</v>
@@ -21170,7 +21387,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="9" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>410</v>
@@ -21196,7 +21413,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>410</v>
@@ -21222,7 +21439,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>410</v>
@@ -21248,7 +21465,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>410</v>
@@ -21274,7 +21491,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>410</v>
@@ -21300,7 +21517,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>410</v>
@@ -21326,7 +21543,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>410</v>
@@ -21352,7 +21569,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>410</v>
@@ -21378,7 +21595,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>410</v>
@@ -21404,7 +21621,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="9" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>410</v>
@@ -21430,7 +21647,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>410</v>
@@ -21456,7 +21673,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>410</v>
@@ -21482,7 +21699,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>410</v>
@@ -21508,7 +21725,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>410</v>
@@ -21534,7 +21751,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="9" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>410</v>
@@ -21560,7 +21777,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>410</v>
@@ -21586,7 +21803,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="9" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>410</v>
@@ -21612,7 +21829,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="9" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>410</v>
@@ -21638,7 +21855,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="9" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>410</v>
@@ -21664,7 +21881,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>410</v>
@@ -21690,7 +21907,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="9" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>410</v>
@@ -21716,7 +21933,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>410</v>
@@ -21742,7 +21959,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>410</v>
@@ -21768,7 +21985,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>410</v>
@@ -21794,7 +22011,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>410</v>
@@ -21820,7 +22037,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>410</v>
@@ -21846,7 +22063,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>410</v>
@@ -21872,7 +22089,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>410</v>
@@ -21898,7 +22115,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>410</v>
@@ -21924,7 +22141,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="9" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>410</v>
@@ -21950,7 +22167,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>410</v>
@@ -21976,7 +22193,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>410</v>
@@ -22002,7 +22219,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>410</v>
@@ -22028,7 +22245,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="9" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>410</v>
@@ -22054,7 +22271,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>461</v>
@@ -22080,7 +22297,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="9" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>461</v>
@@ -22106,7 +22323,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="9" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>461</v>
@@ -22132,7 +22349,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="9" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>461</v>
@@ -22158,7 +22375,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>461</v>
@@ -22184,7 +22401,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>461</v>
@@ -22210,7 +22427,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>461</v>
@@ -22236,7 +22453,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="9" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>461</v>
@@ -22262,7 +22479,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="9" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>461</v>
@@ -22288,7 +22505,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="9" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>461</v>
@@ -22314,7 +22531,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>461</v>
@@ -22340,7 +22557,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>461</v>
@@ -22366,7 +22583,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>461</v>
@@ -22392,7 +22609,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="9" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>461</v>
@@ -22418,7 +22635,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>461</v>
@@ -22444,7 +22661,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>461</v>
@@ -22470,7 +22687,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>461</v>
@@ -22496,7 +22713,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>461</v>
@@ -22522,7 +22739,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>461</v>
@@ -22548,7 +22765,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="9" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>461</v>
@@ -22574,7 +22791,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="9" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>461</v>
@@ -22600,7 +22817,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>461</v>
@@ -22626,7 +22843,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="9" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>461</v>
@@ -22652,7 +22869,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="9" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>461</v>
@@ -22678,7 +22895,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="9" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>461</v>
@@ -22704,7 +22921,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="9" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>461</v>
@@ -22730,7 +22947,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="9" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>461</v>
@@ -22756,7 +22973,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="9" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>461</v>
@@ -22782,7 +22999,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="9" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>461</v>
@@ -22808,7 +23025,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="9" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>461</v>
@@ -22834,7 +23051,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>461</v>
@@ -22860,7 +23077,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>461</v>
@@ -22886,7 +23103,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="9" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>461</v>
@@ -22912,7 +23129,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="9" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>461</v>
@@ -22938,7 +23155,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>461</v>
@@ -22964,7 +23181,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>461</v>
@@ -22990,7 +23207,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>461</v>
@@ -23016,7 +23233,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>461</v>
@@ -23042,7 +23259,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="9" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>461</v>
@@ -23068,7 +23285,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>461</v>
@@ -23094,7 +23311,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>461</v>
@@ -23120,7 +23337,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="9" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>461</v>
@@ -23146,7 +23363,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="9" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>461</v>
@@ -23172,7 +23389,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="9" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>461</v>
@@ -23198,7 +23415,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="9" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="C470" s="5" t="s">
         <v>461</v>
@@ -23224,7 +23441,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="9" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>461</v>
@@ -23245,29 +23462,29 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A472" s="4">
+    <row r="472" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="96">
         <v>471</v>
       </c>
-      <c r="B472" s="9" t="s">
-        <v>2205</v>
-      </c>
-      <c r="C472" s="5" t="s">
+      <c r="B472" s="95" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C472" s="97" t="s">
         <v>510</v>
       </c>
-      <c r="D472" s="5" t="s">
+      <c r="D472" s="97" t="s">
         <v>511</v>
       </c>
-      <c r="E472" s="5" t="s">
+      <c r="E472" s="97" t="s">
         <v>511</v>
       </c>
-      <c r="F472" s="15" t="s">
+      <c r="F472" s="99" t="s">
         <v>1368</v>
       </c>
-      <c r="G472" s="5" t="s">
+      <c r="G472" s="97" t="s">
         <v>1369</v>
       </c>
-      <c r="H472" s="5" t="s">
+      <c r="H472" s="97" t="s">
         <v>1369</v>
       </c>
     </row>
@@ -23276,7 +23493,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>510</v>
@@ -23302,7 +23519,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>510</v>
@@ -23328,7 +23545,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="9" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>510</v>
@@ -23354,7 +23571,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="9" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>510</v>
@@ -23380,7 +23597,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>510</v>
@@ -23406,7 +23623,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>510</v>
@@ -23432,7 +23649,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>510</v>
@@ -23458,7 +23675,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>510</v>
@@ -23484,7 +23701,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>510</v>
@@ -23510,7 +23727,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="9" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="C482" s="5" t="s">
         <v>510</v>
@@ -23536,7 +23753,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="9" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="C483" s="5" t="s">
         <v>510</v>
@@ -23562,7 +23779,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="9" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="C484" s="5" t="s">
         <v>510</v>
@@ -23588,7 +23805,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="C485" s="5" t="s">
         <v>510</v>
@@ -23614,7 +23831,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>510</v>
@@ -23640,7 +23857,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="9" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>510</v>
@@ -23666,7 +23883,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="9" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="C488" s="5" t="s">
         <v>510</v>
@@ -23692,7 +23909,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="9" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="C489" s="5" t="s">
         <v>510</v>
@@ -23718,7 +23935,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="9" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="C490" s="5" t="s">
         <v>510</v>
@@ -23744,7 +23961,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="9" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="C491" s="5" t="s">
         <v>510</v>
@@ -23770,7 +23987,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="9" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="C492" s="5" t="s">
         <v>510</v>
@@ -23796,7 +24013,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="9" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>510</v>
@@ -23822,7 +24039,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="9" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="C494" s="5" t="s">
         <v>510</v>
@@ -23848,7 +24065,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="9" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="C495" s="5" t="s">
         <v>510</v>
@@ -23874,7 +24091,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="9" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="C496" s="5" t="s">
         <v>510</v>
@@ -23952,7 +24169,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="9" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>538</v>
@@ -23961,7 +24178,7 @@
         <v>540</v>
       </c>
       <c r="E499" s="5" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="F499" s="5" t="s">
         <v>1395</v>
@@ -23970,7 +24187,7 @@
         <v>1397</v>
       </c>
       <c r="H499" s="5" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.15">
@@ -24129,29 +24346,29 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A506" s="4">
+    <row r="506" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A506" s="96">
         <v>505</v>
       </c>
-      <c r="B506" s="9">
+      <c r="B506" s="95">
         <v>110000</v>
       </c>
-      <c r="C506" s="5" t="s">
+      <c r="C506" s="97" t="s">
         <v>547</v>
       </c>
-      <c r="D506" s="5" t="s">
+      <c r="D506" s="97" t="s">
         <v>548</v>
       </c>
-      <c r="E506" s="5" t="s">
+      <c r="E506" s="97" t="s">
         <v>549</v>
       </c>
-      <c r="F506" s="15" t="s">
+      <c r="F506" s="99" t="s">
         <v>1404</v>
       </c>
-      <c r="G506" s="5" t="s">
+      <c r="G506" s="97" t="s">
         <v>1405</v>
       </c>
-      <c r="H506" s="5" t="s">
+      <c r="H506" s="97" t="s">
         <v>1404</v>
       </c>
     </row>
@@ -24559,7 +24776,7 @@
         <v>547</v>
       </c>
       <c r="E522" s="5" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="F522" s="15" t="s">
         <v>1404</v>
@@ -24576,7 +24793,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="9" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="C523" s="5" t="s">
         <v>547</v>
@@ -24597,29 +24814,29 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A524" s="4">
+    <row r="524" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A524" s="96">
         <v>523</v>
       </c>
-      <c r="B524" s="61">
+      <c r="B524" s="95">
         <v>120000</v>
       </c>
-      <c r="C524" s="5" t="s">
+      <c r="C524" s="97" t="s">
         <v>564</v>
       </c>
-      <c r="D524" s="5" t="s">
+      <c r="D524" s="97" t="s">
         <v>565</v>
       </c>
-      <c r="E524" s="5" t="s">
+      <c r="E524" s="97" t="s">
         <v>565</v>
       </c>
-      <c r="F524" s="15" t="s">
+      <c r="F524" s="99" t="s">
         <v>1423</v>
       </c>
-      <c r="G524" s="5" t="s">
+      <c r="G524" s="97" t="s">
         <v>1424</v>
       </c>
-      <c r="H524" s="5" t="s">
+      <c r="H524" s="97" t="s">
         <v>1424</v>
       </c>
     </row>
@@ -24627,8 +24844,8 @@
       <c r="A525" s="4">
         <v>524</v>
       </c>
-      <c r="B525" s="9">
-        <v>120100</v>
+      <c r="B525" s="9" t="s">
+        <v>2521</v>
       </c>
       <c r="C525" s="5" t="s">
         <v>564</v>
@@ -24643,7 +24860,7 @@
         <v>1423</v>
       </c>
       <c r="G525" s="5" t="s">
-        <v>1425</v>
+        <v>2522</v>
       </c>
       <c r="H525" s="5" t="s">
         <v>1425</v>
@@ -24653,8 +24870,8 @@
       <c r="A526" s="4">
         <v>525</v>
       </c>
-      <c r="B526" s="9">
-        <v>120200</v>
+      <c r="B526" s="9" t="s">
+        <v>2523</v>
       </c>
       <c r="C526" s="5" t="s">
         <v>564</v>
@@ -24669,7 +24886,7 @@
         <v>1423</v>
       </c>
       <c r="G526" s="5" t="s">
-        <v>1426</v>
+        <v>2524</v>
       </c>
       <c r="H526" s="5" t="s">
         <v>1427</v>
@@ -24757,8 +24974,8 @@
       <c r="A530" s="4">
         <v>529</v>
       </c>
-      <c r="B530" s="9">
-        <v>120300</v>
+      <c r="B530" s="9" t="s">
+        <v>2525</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>564</v>
@@ -24783,8 +25000,8 @@
       <c r="A531" s="4">
         <v>530</v>
       </c>
-      <c r="B531" s="9">
-        <v>120301</v>
+      <c r="B531" s="9" t="s">
+        <v>2527</v>
       </c>
       <c r="C531" s="5" t="s">
         <v>564</v>
@@ -24799,7 +25016,7 @@
         <v>1423</v>
       </c>
       <c r="G531" s="5" t="s">
-        <v>1431</v>
+        <v>2526</v>
       </c>
       <c r="H531" s="5" t="s">
         <v>1432</v>
@@ -24883,29 +25100,29 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A535" s="4">
+    <row r="535" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A535" s="96">
         <v>534</v>
       </c>
-      <c r="B535" s="9">
-        <v>130000</v>
-      </c>
-      <c r="C535" s="5" t="s">
+      <c r="B535" s="95" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C535" s="97" t="s">
         <v>577</v>
       </c>
-      <c r="D535" s="5" t="s">
+      <c r="D535" s="97" t="s">
         <v>578</v>
       </c>
-      <c r="E535" s="5" t="s">
+      <c r="E535" s="97" t="s">
         <v>578</v>
       </c>
-      <c r="F535" s="15" t="s">
+      <c r="F535" s="99" t="s">
         <v>1436</v>
       </c>
-      <c r="G535" s="5" t="s">
-        <v>1437</v>
-      </c>
-      <c r="H535" s="5" t="s">
+      <c r="G535" s="97" t="s">
+        <v>2529</v>
+      </c>
+      <c r="H535" s="97" t="s">
         <v>1437</v>
       </c>
     </row>
@@ -25949,30 +26166,30 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A576" s="4">
+    <row r="576" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A576" s="96">
         <v>575</v>
       </c>
-      <c r="B576" s="9">
+      <c r="B576" s="95">
         <v>140000</v>
       </c>
-      <c r="C576" s="5" t="s">
+      <c r="C576" s="97" t="s">
         <v>624</v>
       </c>
-      <c r="D576" s="5" t="s">
+      <c r="D576" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="E576" s="5" t="s">
+      <c r="E576" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="F576" s="15" t="s">
+      <c r="F576" s="99" t="s">
         <v>1481</v>
       </c>
-      <c r="G576" s="5" t="s">
-        <v>2240</v>
-      </c>
-      <c r="H576" s="5" t="s">
-        <v>2240</v>
+      <c r="G576" s="97" t="s">
+        <v>2238</v>
+      </c>
+      <c r="H576" s="97" t="s">
+        <v>2238</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.15">
@@ -25995,7 +26212,7 @@
         <v>1481</v>
       </c>
       <c r="G577" s="5" t="s">
-        <v>1482</v>
+        <v>2531</v>
       </c>
       <c r="H577" s="5" t="s">
         <v>1482</v>
@@ -26084,7 +26301,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="9" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C581" s="5" t="s">
         <v>624</v>
@@ -26093,7 +26310,7 @@
         <v>629</v>
       </c>
       <c r="E581" s="5" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="F581" s="5" t="s">
         <v>1481</v>
@@ -26102,7 +26319,7 @@
         <v>1485</v>
       </c>
       <c r="H581" s="5" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.15">
@@ -26469,29 +26686,29 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A596" s="4">
+    <row r="596" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A596" s="96">
         <v>595</v>
       </c>
-      <c r="B596" s="61" t="s">
-        <v>2505</v>
-      </c>
-      <c r="C596" s="5" t="s">
+      <c r="B596" s="95" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C596" s="97" t="s">
         <v>624</v>
       </c>
-      <c r="D596" s="5" t="s">
+      <c r="D596" s="97" t="s">
         <v>644</v>
       </c>
-      <c r="E596" s="5" t="s">
+      <c r="E596" s="97" t="s">
         <v>644</v>
       </c>
-      <c r="F596" s="5" t="s">
+      <c r="F596" s="97" t="s">
         <v>1481</v>
       </c>
-      <c r="G596" s="5" t="s">
+      <c r="G596" s="97" t="s">
         <v>1500</v>
       </c>
-      <c r="H596" s="5" t="s">
+      <c r="H596" s="97" t="s">
         <v>1500</v>
       </c>
     </row>
@@ -26518,7 +26735,7 @@
         <v>1500</v>
       </c>
       <c r="H597" s="5" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.15">
@@ -26578,7 +26795,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="9" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="C600" s="5" t="s">
         <v>624</v>
@@ -26781,30 +26998,30 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A608" s="4">
+    <row r="608" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A608" s="96">
         <v>607</v>
       </c>
-      <c r="B608" s="61">
+      <c r="B608" s="95">
         <v>150100</v>
       </c>
-      <c r="C608" s="5" t="s">
+      <c r="C608" s="97" t="s">
         <v>655</v>
       </c>
-      <c r="D608" s="5" t="s">
-        <v>2373</v>
-      </c>
-      <c r="E608" s="5" t="s">
-        <v>2373</v>
-      </c>
-      <c r="F608" s="5" t="s">
+      <c r="D608" s="97" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E608" s="97" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F608" s="97" t="s">
         <v>1511</v>
       </c>
-      <c r="G608" s="5" t="s">
-        <v>2378</v>
-      </c>
-      <c r="H608" s="5" t="s">
-        <v>2378</v>
+      <c r="G608" s="97" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H608" s="97" t="s">
+        <v>2376</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.15">
@@ -26818,19 +27035,19 @@
         <v>655</v>
       </c>
       <c r="D609" s="5" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="E609" s="5" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="F609" s="5" t="s">
         <v>1511</v>
       </c>
       <c r="G609" s="5" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="H609" s="38" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.15">
@@ -26844,19 +27061,19 @@
         <v>655</v>
       </c>
       <c r="D610" s="5" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="E610" s="5" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="F610" s="5" t="s">
         <v>1511</v>
       </c>
       <c r="G610" s="5" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="H610" s="38" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.15">
@@ -26864,22 +27081,22 @@
         <v>610</v>
       </c>
       <c r="B611" s="9" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="C611" s="5" t="s">
         <v>655</v>
       </c>
       <c r="D611" s="5" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="E611" s="5" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="F611" s="5" t="s">
         <v>1511</v>
       </c>
       <c r="G611" s="5" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="H611" s="5" t="s">
         <v>1513</v>
@@ -26890,25 +27107,25 @@
         <v>611</v>
       </c>
       <c r="B612" s="9" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="C612" s="5" t="s">
         <v>655</v>
       </c>
       <c r="D612" s="5" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="E612" s="5" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="F612" s="5" t="s">
         <v>1511</v>
       </c>
       <c r="G612" s="5" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="H612" s="5" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.15">
@@ -26916,25 +27133,25 @@
         <v>612</v>
       </c>
       <c r="B613" s="9" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="C613" s="5" t="s">
         <v>655</v>
       </c>
       <c r="D613" s="5" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="E613" s="39" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="F613" s="5" t="s">
         <v>1511</v>
       </c>
       <c r="G613" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H613" s="5" t="s">
         <v>2378</v>
-      </c>
-      <c r="H613" s="5" t="s">
-        <v>2380</v>
       </c>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.15">
@@ -26942,13 +27159,13 @@
         <v>613</v>
       </c>
       <c r="B614" s="9" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="C614" s="5" t="s">
         <v>655</v>
       </c>
       <c r="D614" s="5" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="E614" s="5" t="s">
         <v>657</v>
@@ -26957,7 +27174,7 @@
         <v>1511</v>
       </c>
       <c r="G614" s="5" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="H614" s="5" t="s">
         <v>1514</v>
@@ -26977,7 +27194,7 @@
         <v>658</v>
       </c>
       <c r="E615" s="5" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="F615" s="5" t="s">
         <v>1511</v>
@@ -27003,7 +27220,7 @@
         <v>658</v>
       </c>
       <c r="E616" s="40" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="F616" s="5" t="s">
         <v>1511</v>
@@ -27012,7 +27229,7 @@
         <v>1515</v>
       </c>
       <c r="H616" s="38" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.15">
@@ -27029,7 +27246,7 @@
         <v>658</v>
       </c>
       <c r="E617" s="37" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="F617" s="5" t="s">
         <v>1511</v>
@@ -27038,7 +27255,7 @@
         <v>1515</v>
       </c>
       <c r="H617" s="38" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.15">
@@ -27055,7 +27272,7 @@
         <v>658</v>
       </c>
       <c r="E618" s="37" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="F618" s="5" t="s">
         <v>1511</v>
@@ -27081,7 +27298,7 @@
         <v>658</v>
       </c>
       <c r="E619" s="37" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="F619" s="5" t="s">
         <v>1511</v>
@@ -27090,7 +27307,7 @@
         <v>1515</v>
       </c>
       <c r="H619" s="38" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.15">
@@ -27107,7 +27324,7 @@
         <v>658</v>
       </c>
       <c r="E620" s="37" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="F620" s="5" t="s">
         <v>1511</v>
@@ -27116,7 +27333,7 @@
         <v>1515</v>
       </c>
       <c r="H620" s="38" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.15">
@@ -27133,7 +27350,7 @@
         <v>658</v>
       </c>
       <c r="E621" s="37" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="F621" s="5" t="s">
         <v>1511</v>
@@ -27142,7 +27359,7 @@
         <v>1515</v>
       </c>
       <c r="H621" s="38" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.15">
@@ -27159,7 +27376,7 @@
         <v>658</v>
       </c>
       <c r="E622" s="37" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="F622" s="5" t="s">
         <v>1511</v>
@@ -27168,7 +27385,7 @@
         <v>1515</v>
       </c>
       <c r="H622" s="38" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.15">
@@ -27185,7 +27402,7 @@
         <v>658</v>
       </c>
       <c r="E623" s="37" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="F623" s="5" t="s">
         <v>1511</v>
@@ -27194,7 +27411,7 @@
         <v>1515</v>
       </c>
       <c r="H623" s="38" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.15">
@@ -27211,7 +27428,7 @@
         <v>658</v>
       </c>
       <c r="E624" s="41" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="F624" s="5" t="s">
         <v>1511</v>
@@ -27220,7 +27437,7 @@
         <v>1515</v>
       </c>
       <c r="H624" s="38" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.15">
@@ -27228,7 +27445,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="9" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="C625" s="5" t="s">
         <v>655</v>
@@ -27409,8 +27626,8 @@
       <c r="A632" s="4">
         <v>631</v>
       </c>
-      <c r="B632" s="61">
-        <v>150500</v>
+      <c r="B632" s="61" t="s">
+        <v>2532</v>
       </c>
       <c r="C632" s="5" t="s">
         <v>655</v>
@@ -27487,8 +27704,8 @@
       <c r="A635" s="4">
         <v>634</v>
       </c>
-      <c r="B635" s="61">
-        <v>150700</v>
+      <c r="B635" s="61" t="s">
+        <v>2537</v>
       </c>
       <c r="C635" s="5" t="s">
         <v>655</v>
@@ -27540,16 +27757,16 @@
         <v>636</v>
       </c>
       <c r="B637" s="9" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="C637" s="5" t="s">
         <v>655</v>
       </c>
       <c r="D637" s="5" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="E637" s="5" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="F637" s="15" t="s">
         <v>1511</v>
@@ -27566,16 +27783,16 @@
         <v>637</v>
       </c>
       <c r="B638" s="9" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="C638" s="5" t="s">
         <v>655</v>
       </c>
       <c r="D638" s="5" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="E638" s="37" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="F638" s="15" t="s">
         <v>1511</v>
@@ -27584,14 +27801,14 @@
         <v>1526</v>
       </c>
       <c r="H638" s="5" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A639" s="4">
         <v>638</v>
       </c>
-      <c r="B639" s="64">
+      <c r="B639" s="63">
         <v>150800</v>
       </c>
       <c r="C639" s="5" t="s">
@@ -27601,7 +27818,7 @@
         <v>672</v>
       </c>
       <c r="E639" s="5" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="F639" s="15" t="s">
         <v>1511</v>
@@ -27617,8 +27834,8 @@
       <c r="A640" s="4">
         <v>639</v>
       </c>
-      <c r="B640" s="61">
-        <v>150900</v>
+      <c r="B640" s="61" t="s">
+        <v>2533</v>
       </c>
       <c r="C640" s="5" t="s">
         <v>655</v>
@@ -27659,7 +27876,7 @@
         <v>1511</v>
       </c>
       <c r="G641" s="5" t="s">
-        <v>1531</v>
+        <v>2534</v>
       </c>
       <c r="H641" s="5" t="s">
         <v>1533</v>
@@ -27757,7 +27974,7 @@
         <v>673</v>
       </c>
       <c r="E645" s="5" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="F645" s="15" t="s">
         <v>1511</v>
@@ -27766,7 +27983,7 @@
         <v>1531</v>
       </c>
       <c r="H645" s="5" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.15">
@@ -27783,7 +28000,7 @@
         <v>673</v>
       </c>
       <c r="E646" s="5" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="F646" s="15" t="s">
         <v>1511</v>
@@ -27792,7 +28009,7 @@
         <v>1531</v>
       </c>
       <c r="H646" s="5" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.15">
@@ -27809,7 +28026,7 @@
         <v>673</v>
       </c>
       <c r="E647" s="5" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="F647" s="15" t="s">
         <v>1511</v>
@@ -27818,7 +28035,7 @@
         <v>1531</v>
       </c>
       <c r="H647" s="5" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.15">
@@ -27852,25 +28069,25 @@
         <v>648</v>
       </c>
       <c r="B649" s="61" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="C649" s="5" t="s">
         <v>655</v>
       </c>
       <c r="D649" s="5" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="E649" s="5" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="F649" s="5" t="s">
         <v>1511</v>
       </c>
       <c r="G649" s="5" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="H649" s="5" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.15">
@@ -27878,25 +28095,25 @@
         <v>649</v>
       </c>
       <c r="B650" s="9" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="C650" s="5" t="s">
         <v>655</v>
       </c>
       <c r="D650" s="5" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="E650" s="5" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="F650" s="5" t="s">
         <v>1511</v>
       </c>
       <c r="G650" s="5" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="H650" s="5" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.15">
@@ -27904,25 +28121,25 @@
         <v>650</v>
       </c>
       <c r="B651" s="9" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="C651" s="5" t="s">
         <v>655</v>
       </c>
       <c r="D651" s="5" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="E651" s="5" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="F651" s="5" t="s">
         <v>1511</v>
       </c>
       <c r="G651" s="23" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="H651" s="23" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.15">
@@ -29768,7 +29985,7 @@
         <v>1594</v>
       </c>
       <c r="H722" s="5" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.15">
@@ -30288,7 +30505,7 @@
         <v>1594</v>
       </c>
       <c r="H742" s="5" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.15">
@@ -30704,7 +30921,7 @@
         <v>1641</v>
       </c>
       <c r="H758" s="5" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.15">
@@ -30915,29 +31132,29 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A767" s="4">
+    <row r="767" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A767" s="96">
         <v>766</v>
       </c>
-      <c r="B767" s="61" t="s">
-        <v>2500</v>
-      </c>
-      <c r="C767" s="5" t="s">
+      <c r="B767" s="95" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C767" s="97" t="s">
         <v>797</v>
       </c>
-      <c r="D767" s="5" t="s">
+      <c r="D767" s="97" t="s">
         <v>797</v>
       </c>
-      <c r="E767" s="5" t="s">
+      <c r="E767" s="97" t="s">
         <v>797</v>
       </c>
-      <c r="F767" s="5" t="s">
+      <c r="F767" s="97" t="s">
         <v>1652</v>
       </c>
-      <c r="G767" s="5" t="s">
+      <c r="G767" s="97" t="s">
         <v>1652</v>
       </c>
-      <c r="H767" s="5" t="s">
+      <c r="H767" s="97" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -30971,8 +31188,8 @@
       <c r="A769" s="4">
         <v>768</v>
       </c>
-      <c r="B769" s="9">
-        <v>170200</v>
+      <c r="B769" s="9" t="s">
+        <v>2535</v>
       </c>
       <c r="C769" s="5" t="s">
         <v>797</v>
@@ -30987,7 +31204,7 @@
         <v>1652</v>
       </c>
       <c r="G769" s="5" t="s">
-        <v>1654</v>
+        <v>2536</v>
       </c>
       <c r="H769" s="5" t="s">
         <v>1654</v>
@@ -31461,7 +31678,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A788" s="4">
         <v>787</v>
       </c>
@@ -31487,29 +31704,29 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A789" s="4">
+    <row r="789" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A789" s="96">
         <v>788</v>
       </c>
-      <c r="B789" s="61" t="s">
-        <v>2501</v>
-      </c>
-      <c r="C789" s="5" t="s">
+      <c r="B789" s="95" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C789" s="97" t="s">
         <v>820</v>
       </c>
-      <c r="D789" s="5" t="s">
+      <c r="D789" s="97" t="s">
         <v>820</v>
       </c>
-      <c r="E789" s="5" t="s">
+      <c r="E789" s="97" t="s">
         <v>820</v>
       </c>
-      <c r="F789" s="5" t="s">
+      <c r="F789" s="97" t="s">
         <v>1665</v>
       </c>
-      <c r="G789" s="5" t="s">
+      <c r="G789" s="97" t="s">
         <v>1665</v>
       </c>
-      <c r="H789" s="5" t="s">
+      <c r="H789" s="97" t="s">
         <v>1665</v>
       </c>
     </row>
@@ -31622,7 +31839,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="9" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="C794" s="5" t="s">
         <v>820</v>
@@ -31631,16 +31848,16 @@
         <v>821</v>
       </c>
       <c r="E794" s="5" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="F794" s="15" t="s">
         <v>1665</v>
       </c>
       <c r="G794" s="5" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="H794" s="5" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.15">
@@ -31825,29 +32042,29 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A802" s="4">
+    <row r="802" spans="1:8" s="101" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A802" s="100">
         <v>801</v>
       </c>
-      <c r="B802" s="63">
+      <c r="B802" s="18">
         <v>180400</v>
       </c>
-      <c r="C802" s="5" t="s">
+      <c r="C802" s="19" t="s">
         <v>820</v>
       </c>
-      <c r="D802" s="5" t="s">
+      <c r="D802" s="19" t="s">
         <v>833</v>
       </c>
-      <c r="E802" s="5" t="s">
+      <c r="E802" s="19" t="s">
         <v>833</v>
       </c>
-      <c r="F802" s="5" t="s">
+      <c r="F802" s="19" t="s">
         <v>1665</v>
       </c>
-      <c r="G802" s="5" t="s">
+      <c r="G802" s="19" t="s">
         <v>1678</v>
       </c>
-      <c r="H802" s="5" t="s">
+      <c r="H802" s="19" t="s">
         <v>1678</v>
       </c>
     </row>
@@ -31960,7 +32177,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="9" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="C807" s="5" t="s">
         <v>835</v>
@@ -31986,7 +32203,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="9" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="C808" s="5" t="s">
         <v>835</v>
@@ -31995,7 +32212,7 @@
         <v>1733</v>
       </c>
       <c r="E808" s="5" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="F808" s="5" t="s">
         <v>1680</v>
@@ -32345,29 +32562,29 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A822" s="4">
+    <row r="822" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A822" s="96">
         <v>821</v>
       </c>
-      <c r="B822" s="61" t="s">
-        <v>2506</v>
-      </c>
-      <c r="C822" s="19" t="s">
+      <c r="B822" s="95" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C822" s="97" t="s">
         <v>835</v>
       </c>
-      <c r="D822" s="19" t="s">
+      <c r="D822" s="97" t="s">
         <v>849</v>
       </c>
-      <c r="E822" s="19" t="s">
+      <c r="E822" s="97" t="s">
         <v>850</v>
       </c>
-      <c r="F822" s="5" t="s">
+      <c r="F822" s="97" t="s">
         <v>1680</v>
       </c>
-      <c r="G822" s="5" t="s">
+      <c r="G822" s="97" t="s">
         <v>1696</v>
       </c>
-      <c r="H822" s="5" t="s">
+      <c r="H822" s="97" t="s">
         <v>1697</v>
       </c>
     </row>
@@ -32376,7 +32593,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="61" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="C823" s="19" t="s">
         <v>835</v>
@@ -32427,8 +32644,8 @@
       <c r="A825" s="4">
         <v>824</v>
       </c>
-      <c r="B825" s="61">
-        <v>190304</v>
+      <c r="B825" s="61" t="s">
+        <v>2505</v>
       </c>
       <c r="C825" s="19" t="s">
         <v>835</v>
@@ -32454,7 +32671,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="61" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="C826" s="19" t="s">
         <v>835</v>
@@ -32506,7 +32723,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="18" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="C828" s="19" t="s">
         <v>835</v>
@@ -32531,8 +32748,8 @@
       <c r="A829" s="4">
         <v>828</v>
       </c>
-      <c r="B829" s="61">
-        <v>190308</v>
+      <c r="B829" s="61" t="s">
+        <v>2504</v>
       </c>
       <c r="C829" s="19" t="s">
         <v>835</v>
@@ -32557,8 +32774,8 @@
       <c r="A830" s="4">
         <v>829</v>
       </c>
-      <c r="B830" s="61">
-        <v>190309</v>
+      <c r="B830" s="61" t="s">
+        <v>2538</v>
       </c>
       <c r="C830" s="19" t="s">
         <v>835</v>
@@ -32807,7 +33024,7 @@
         <v>1680</v>
       </c>
       <c r="G839" s="5" t="s">
-        <v>1714</v>
+        <v>2539</v>
       </c>
       <c r="H839" s="5" t="s">
         <v>1714</v>
@@ -32896,7 +33113,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="61" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="C843" s="5" t="s">
         <v>869</v>
@@ -32922,7 +33139,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="9" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="C844" s="5" t="s">
         <v>869</v>
@@ -32931,7 +33148,7 @@
         <v>872</v>
       </c>
       <c r="E844" s="37" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="F844" s="15" t="s">
         <v>1715</v>
@@ -32940,7 +33157,7 @@
         <v>1718</v>
       </c>
       <c r="H844" s="36" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="845" spans="1:8" x14ac:dyDescent="0.15">
@@ -32948,7 +33165,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="9" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="C845" s="5" t="s">
         <v>869</v>
@@ -32957,7 +33174,7 @@
         <v>872</v>
       </c>
       <c r="E845" s="37" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="F845" s="15" t="s">
         <v>1715</v>
@@ -32966,7 +33183,7 @@
         <v>1718</v>
       </c>
       <c r="H845" s="36" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="846" spans="1:8" x14ac:dyDescent="0.15">
@@ -32974,7 +33191,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="9" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="C846" s="5" t="s">
         <v>869</v>
@@ -32983,7 +33200,7 @@
         <v>872</v>
       </c>
       <c r="E846" s="37" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="F846" s="15" t="s">
         <v>1715</v>
@@ -32992,7 +33209,7 @@
         <v>1718</v>
       </c>
       <c r="H846" s="36" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="847" spans="1:8" x14ac:dyDescent="0.15">
@@ -33000,7 +33217,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="9" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="C847" s="5" t="s">
         <v>869</v>
@@ -33009,7 +33226,7 @@
         <v>872</v>
       </c>
       <c r="E847" s="37" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="F847" s="15" t="s">
         <v>1715</v>
@@ -33018,7 +33235,7 @@
         <v>1718</v>
       </c>
       <c r="H847" s="36" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="848" spans="1:8" x14ac:dyDescent="0.15">
@@ -33052,25 +33269,25 @@
         <v>848</v>
       </c>
       <c r="B849" s="62" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="C849" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D849" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="E849" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="F849" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G849" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="H849" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="850" spans="1:8" x14ac:dyDescent="0.15">
@@ -33081,22 +33298,22 @@
         <v>220100</v>
       </c>
       <c r="C850" s="16" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D850" s="16" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E850" s="31" t="s">
         <v>2244</v>
       </c>
-      <c r="D850" s="16" t="s">
-        <v>2276</v>
-      </c>
-      <c r="E850" s="31" t="s">
-        <v>2246</v>
-      </c>
       <c r="F850" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G850" s="16" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="H850" s="32" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="851" spans="1:8" x14ac:dyDescent="0.15">
@@ -33107,22 +33324,22 @@
         <v>220101</v>
       </c>
       <c r="C851" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D851" s="16" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="E851" s="31" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="F851" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G851" s="16" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="H851" s="33" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="852" spans="1:8" x14ac:dyDescent="0.15">
@@ -33133,22 +33350,22 @@
         <v>220102</v>
       </c>
       <c r="C852" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D852" s="16" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="E852" s="31" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="F852" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G852" s="16" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="H852" s="34" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.15">
@@ -33159,22 +33376,22 @@
         <v>220103</v>
       </c>
       <c r="C853" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D853" s="16" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="E853" s="31" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="F853" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G853" s="16" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="H853" s="34" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="854" spans="1:8" x14ac:dyDescent="0.15">
@@ -33185,22 +33402,22 @@
         <v>220104</v>
       </c>
       <c r="C854" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D854" s="16" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="E854" s="31" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="F854" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G854" s="16" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="H854" s="34" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="855" spans="1:8" x14ac:dyDescent="0.15">
@@ -33211,22 +33428,22 @@
         <v>220105</v>
       </c>
       <c r="C855" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D855" s="16" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="E855" s="31" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="F855" s="29" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="G855" s="16" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="H855" s="34" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.15">
@@ -33237,22 +33454,22 @@
         <v>220106</v>
       </c>
       <c r="C856" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D856" s="16" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="E856" s="31" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="F856" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G856" s="16" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="H856" s="34" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="857" spans="1:8" x14ac:dyDescent="0.15">
@@ -33263,22 +33480,22 @@
         <v>220107</v>
       </c>
       <c r="C857" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D857" s="16" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="E857" s="31" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="F857" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G857" s="16" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="H857" s="35" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="858" spans="1:8" x14ac:dyDescent="0.15">
@@ -33289,22 +33506,22 @@
         <v>220200</v>
       </c>
       <c r="C858" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D858" s="16" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="E858" s="31" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="F858" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G858" s="16" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="H858" s="35" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="859" spans="1:8" x14ac:dyDescent="0.15">
@@ -33315,22 +33532,22 @@
         <v>220201</v>
       </c>
       <c r="C859" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D859" s="16" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="E859" s="31" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="F859" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G859" s="16" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="H859" s="32" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="860" spans="1:8" x14ac:dyDescent="0.15">
@@ -33341,22 +33558,22 @@
         <v>220202</v>
       </c>
       <c r="C860" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D860" s="16" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="E860" s="31" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="F860" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G860" s="16" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="H860" s="32" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="861" spans="1:8" x14ac:dyDescent="0.15">
@@ -33367,22 +33584,22 @@
         <v>220203</v>
       </c>
       <c r="C861" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D861" s="16" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="E861" s="31" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="F861" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G861" s="16" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="H861" s="32" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="862" spans="1:8" x14ac:dyDescent="0.15">
@@ -33393,22 +33610,22 @@
         <v>220204</v>
       </c>
       <c r="C862" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D862" s="16" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="E862" s="31" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="F862" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G862" s="16" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="H862" s="32" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="863" spans="1:8" x14ac:dyDescent="0.15">
@@ -33419,22 +33636,22 @@
         <v>220205</v>
       </c>
       <c r="C863" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D863" s="16" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="E863" s="31" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="F863" s="29" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G863" s="16" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="H863" s="32" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="864" spans="1:8" x14ac:dyDescent="0.15">
@@ -33598,25 +33815,25 @@
         <v>869</v>
       </c>
       <c r="B870" s="10" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="C870" s="16" t="s">
         <v>1749</v>
       </c>
       <c r="D870" s="6" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="E870" s="6" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="F870" s="16" t="s">
         <v>1750</v>
       </c>
       <c r="G870" s="6" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="H870" s="6" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="871" spans="1:8" x14ac:dyDescent="0.15">
@@ -33644,10 +33861,3316 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="867" man="1"/>
   </colBreaks>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H127"/>
+  <sheetViews>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="37.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A1" s="4">
+        <v>606</v>
+      </c>
+      <c r="B1" s="9">
+        <v>150000</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>607</v>
+      </c>
+      <c r="B2" s="61">
+        <v>150100</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>608</v>
+      </c>
+      <c r="B3" s="4">
+        <v>150101</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2339</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>609</v>
+      </c>
+      <c r="B4" s="4">
+        <v>150102</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>2340</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>610</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>611</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>612</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>613</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>614</v>
+      </c>
+      <c r="B9" s="61">
+        <v>150200</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>615</v>
+      </c>
+      <c r="B10" s="4">
+        <v>150201</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>2321</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>616</v>
+      </c>
+      <c r="B11" s="4">
+        <v>150202</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>617</v>
+      </c>
+      <c r="B12" s="4">
+        <v>150203</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>618</v>
+      </c>
+      <c r="B13" s="4">
+        <v>150204</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>2324</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>619</v>
+      </c>
+      <c r="B14" s="4">
+        <v>150205</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>2325</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>620</v>
+      </c>
+      <c r="B15" s="4">
+        <v>150206</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>2326</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>621</v>
+      </c>
+      <c r="B16" s="4">
+        <v>150207</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>2327</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>622</v>
+      </c>
+      <c r="B17" s="4">
+        <v>150208</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>623</v>
+      </c>
+      <c r="B18" s="4">
+        <v>150209</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>2329</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>624</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>625</v>
+      </c>
+      <c r="B20" s="61">
+        <v>150300</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>626</v>
+      </c>
+      <c r="B21" s="9">
+        <v>150301</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>627</v>
+      </c>
+      <c r="B22" s="9">
+        <v>150302</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
+        <v>628</v>
+      </c>
+      <c r="B23" s="9">
+        <v>150303</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>629</v>
+      </c>
+      <c r="B24" s="9">
+        <v>150304</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
+        <v>630</v>
+      </c>
+      <c r="B25" s="61">
+        <v>150400</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
+        <v>631</v>
+      </c>
+      <c r="B26" s="61">
+        <v>150500</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
+        <v>632</v>
+      </c>
+      <c r="B27" s="9">
+        <v>150501</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
+        <v>633</v>
+      </c>
+      <c r="B28" s="61">
+        <v>150600</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
+        <v>634</v>
+      </c>
+      <c r="B29" s="61">
+        <v>150700</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
+        <v>635</v>
+      </c>
+      <c r="B30" s="9">
+        <v>150701</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
+        <v>636</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
+        <v>637</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>2344</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="76" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A33" s="72">
+        <v>638</v>
+      </c>
+      <c r="B33" s="73">
+        <v>150800</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>655</v>
+      </c>
+      <c r="D33" s="74" t="s">
+        <v>672</v>
+      </c>
+      <c r="E33" s="74" t="s">
+        <v>2287</v>
+      </c>
+      <c r="F33" s="75" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G33" s="74" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H33" s="74" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
+        <v>639</v>
+      </c>
+      <c r="B34" s="61">
+        <v>150900</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
+        <v>640</v>
+      </c>
+      <c r="B35" s="9">
+        <v>150903</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A36" s="4">
+        <v>641</v>
+      </c>
+      <c r="B36" s="9">
+        <v>150904</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A37" s="4">
+        <v>642</v>
+      </c>
+      <c r="B37" s="9">
+        <v>150905</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
+        <v>643</v>
+      </c>
+      <c r="B38" s="9">
+        <v>150906</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A39" s="4">
+        <v>644</v>
+      </c>
+      <c r="B39" s="9">
+        <v>150907</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>2395</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
+        <v>645</v>
+      </c>
+      <c r="B40" s="9">
+        <v>150908</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A41" s="4">
+        <v>646</v>
+      </c>
+      <c r="B41" s="9">
+        <v>150909</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>2397</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A42" s="4">
+        <v>647</v>
+      </c>
+      <c r="B42" s="9">
+        <v>151000</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A43" s="4">
+        <v>648</v>
+      </c>
+      <c r="B43" s="61" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>2347</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>2347</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A44" s="4">
+        <v>766</v>
+      </c>
+      <c r="B44" s="61" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A45" s="4">
+        <v>767</v>
+      </c>
+      <c r="B45" s="9">
+        <v>170100</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A46" s="4">
+        <v>768</v>
+      </c>
+      <c r="B46" s="9">
+        <v>170200</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A47" s="4">
+        <v>769</v>
+      </c>
+      <c r="B47" s="9">
+        <v>170201</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A48" s="4">
+        <v>770</v>
+      </c>
+      <c r="B48" s="9">
+        <v>170202</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A49" s="4">
+        <v>771</v>
+      </c>
+      <c r="B49" s="9">
+        <v>170203</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A50" s="4">
+        <v>772</v>
+      </c>
+      <c r="B50" s="9">
+        <v>170204</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A51" s="4">
+        <v>773</v>
+      </c>
+      <c r="B51" s="9">
+        <v>170205</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A52" s="4">
+        <v>774</v>
+      </c>
+      <c r="B52" s="9">
+        <v>170206</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A53" s="4">
+        <v>775</v>
+      </c>
+      <c r="B53" s="9">
+        <v>170207</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A54" s="4">
+        <v>776</v>
+      </c>
+      <c r="B54" s="9">
+        <v>170208</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A55" s="4">
+        <v>777</v>
+      </c>
+      <c r="B55" s="9">
+        <v>170209</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A56" s="4">
+        <v>778</v>
+      </c>
+      <c r="B56" s="9">
+        <v>170300</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A57" s="4">
+        <v>779</v>
+      </c>
+      <c r="B57" s="9">
+        <v>170400</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A58" s="4">
+        <v>780</v>
+      </c>
+      <c r="B58" s="9">
+        <v>170401</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A59" s="4">
+        <v>781</v>
+      </c>
+      <c r="B59" s="9">
+        <v>170402</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A60" s="4">
+        <v>782</v>
+      </c>
+      <c r="B60" s="9">
+        <v>170403</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A61" s="4">
+        <v>783</v>
+      </c>
+      <c r="B61" s="9">
+        <v>170404</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A62" s="4">
+        <v>784</v>
+      </c>
+      <c r="B62" s="9">
+        <v>170405</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A63" s="4">
+        <v>785</v>
+      </c>
+      <c r="B63" s="9">
+        <v>170406</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A64" s="4">
+        <v>786</v>
+      </c>
+      <c r="B64" s="9">
+        <v>170407</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A65" s="4">
+        <v>787</v>
+      </c>
+      <c r="B65" s="9">
+        <v>170408</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A66" s="4">
+        <v>788</v>
+      </c>
+      <c r="B66" s="61" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="64">
+        <v>766</v>
+      </c>
+      <c r="B67" s="68" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C67" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D67" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="E67" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="F67" s="65" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G67" s="65" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H67" s="65" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="64">
+        <v>767</v>
+      </c>
+      <c r="B68" s="66">
+        <v>170100</v>
+      </c>
+      <c r="C68" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D68" s="65" t="s">
+        <v>798</v>
+      </c>
+      <c r="E68" s="65" t="s">
+        <v>798</v>
+      </c>
+      <c r="F68" s="67" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G68" s="65" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H68" s="65" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="64">
+        <v>768</v>
+      </c>
+      <c r="B69" s="66">
+        <v>170200</v>
+      </c>
+      <c r="C69" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D69" s="65" t="s">
+        <v>799</v>
+      </c>
+      <c r="E69" s="65" t="s">
+        <v>799</v>
+      </c>
+      <c r="F69" s="65" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G69" s="65" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H69" s="65" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="64">
+        <v>769</v>
+      </c>
+      <c r="B70" s="66">
+        <v>170201</v>
+      </c>
+      <c r="C70" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D70" s="65" t="s">
+        <v>799</v>
+      </c>
+      <c r="E70" s="65" t="s">
+        <v>800</v>
+      </c>
+      <c r="F70" s="65" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G70" s="65" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H70" s="65" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="64">
+        <v>770</v>
+      </c>
+      <c r="B71" s="66">
+        <v>170202</v>
+      </c>
+      <c r="C71" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D71" s="65" t="s">
+        <v>799</v>
+      </c>
+      <c r="E71" s="65" t="s">
+        <v>801</v>
+      </c>
+      <c r="F71" s="65" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G71" s="65" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H71" s="65" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="64">
+        <v>771</v>
+      </c>
+      <c r="B72" s="66">
+        <v>170203</v>
+      </c>
+      <c r="C72" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D72" s="65" t="s">
+        <v>799</v>
+      </c>
+      <c r="E72" s="65" t="s">
+        <v>802</v>
+      </c>
+      <c r="F72" s="65" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G72" s="65" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H72" s="65" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="64">
+        <v>772</v>
+      </c>
+      <c r="B73" s="66">
+        <v>170204</v>
+      </c>
+      <c r="C73" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D73" s="65" t="s">
+        <v>799</v>
+      </c>
+      <c r="E73" s="65" t="s">
+        <v>803</v>
+      </c>
+      <c r="F73" s="65" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G73" s="65" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H73" s="65" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="64">
+        <v>773</v>
+      </c>
+      <c r="B74" s="66">
+        <v>170205</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D74" s="65" t="s">
+        <v>799</v>
+      </c>
+      <c r="E74" s="65" t="s">
+        <v>804</v>
+      </c>
+      <c r="F74" s="65" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G74" s="65" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H74" s="65" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="64">
+        <v>774</v>
+      </c>
+      <c r="B75" s="66">
+        <v>170206</v>
+      </c>
+      <c r="C75" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D75" s="65" t="s">
+        <v>799</v>
+      </c>
+      <c r="E75" s="65" t="s">
+        <v>805</v>
+      </c>
+      <c r="F75" s="65" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G75" s="65" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H75" s="65" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="64">
+        <v>775</v>
+      </c>
+      <c r="B76" s="66">
+        <v>170207</v>
+      </c>
+      <c r="C76" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D76" s="65" t="s">
+        <v>799</v>
+      </c>
+      <c r="E76" s="65" t="s">
+        <v>806</v>
+      </c>
+      <c r="F76" s="65" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G76" s="65" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H76" s="65" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="64">
+        <v>776</v>
+      </c>
+      <c r="B77" s="66">
+        <v>170208</v>
+      </c>
+      <c r="C77" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D77" s="65" t="s">
+        <v>799</v>
+      </c>
+      <c r="E77" s="65" t="s">
+        <v>807</v>
+      </c>
+      <c r="F77" s="65" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G77" s="65" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H77" s="65" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="64">
+        <v>777</v>
+      </c>
+      <c r="B78" s="66">
+        <v>170209</v>
+      </c>
+      <c r="C78" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D78" s="65" t="s">
+        <v>799</v>
+      </c>
+      <c r="E78" s="65" t="s">
+        <v>808</v>
+      </c>
+      <c r="F78" s="65" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G78" s="65" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H78" s="65" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="64">
+        <v>778</v>
+      </c>
+      <c r="B79" s="66">
+        <v>170300</v>
+      </c>
+      <c r="C79" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D79" s="65" t="s">
+        <v>809</v>
+      </c>
+      <c r="E79" s="65" t="s">
+        <v>809</v>
+      </c>
+      <c r="F79" s="65" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G79" s="65" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H79" s="65" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="64">
+        <v>779</v>
+      </c>
+      <c r="B80" s="66">
+        <v>170400</v>
+      </c>
+      <c r="C80" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D80" s="65" t="s">
+        <v>810</v>
+      </c>
+      <c r="E80" s="65" t="s">
+        <v>811</v>
+      </c>
+      <c r="F80" s="67" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G80" s="65" t="s">
+        <v>2508</v>
+      </c>
+      <c r="H80" s="65" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="64">
+        <v>780</v>
+      </c>
+      <c r="B81" s="66">
+        <v>170401</v>
+      </c>
+      <c r="C81" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D81" s="65" t="s">
+        <v>810</v>
+      </c>
+      <c r="E81" s="65" t="s">
+        <v>812</v>
+      </c>
+      <c r="F81" s="67" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G81" s="65" t="s">
+        <v>2508</v>
+      </c>
+      <c r="H81" s="65" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="64">
+        <v>781</v>
+      </c>
+      <c r="B82" s="66">
+        <v>170402</v>
+      </c>
+      <c r="C82" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D82" s="65" t="s">
+        <v>810</v>
+      </c>
+      <c r="E82" s="65" t="s">
+        <v>813</v>
+      </c>
+      <c r="F82" s="67" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G82" s="65" t="s">
+        <v>2508</v>
+      </c>
+      <c r="H82" s="65" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="64">
+        <v>782</v>
+      </c>
+      <c r="B83" s="66">
+        <v>170403</v>
+      </c>
+      <c r="C83" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D83" s="65" t="s">
+        <v>810</v>
+      </c>
+      <c r="E83" s="65" t="s">
+        <v>814</v>
+      </c>
+      <c r="F83" s="67" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G83" s="65" t="s">
+        <v>2508</v>
+      </c>
+      <c r="H83" s="65" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="64">
+        <v>783</v>
+      </c>
+      <c r="B84" s="66">
+        <v>170404</v>
+      </c>
+      <c r="C84" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D84" s="65" t="s">
+        <v>810</v>
+      </c>
+      <c r="E84" s="65" t="s">
+        <v>815</v>
+      </c>
+      <c r="F84" s="67" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G84" s="65" t="s">
+        <v>2508</v>
+      </c>
+      <c r="H84" s="65" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="64">
+        <v>784</v>
+      </c>
+      <c r="B85" s="66">
+        <v>170405</v>
+      </c>
+      <c r="C85" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D85" s="65" t="s">
+        <v>810</v>
+      </c>
+      <c r="E85" s="65" t="s">
+        <v>816</v>
+      </c>
+      <c r="F85" s="67" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G85" s="65" t="s">
+        <v>2508</v>
+      </c>
+      <c r="H85" s="65" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="64">
+        <v>785</v>
+      </c>
+      <c r="B86" s="66">
+        <v>170406</v>
+      </c>
+      <c r="C86" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D86" s="65" t="s">
+        <v>810</v>
+      </c>
+      <c r="E86" s="65" t="s">
+        <v>817</v>
+      </c>
+      <c r="F86" s="67" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G86" s="65" t="s">
+        <v>2508</v>
+      </c>
+      <c r="H86" s="65" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="64">
+        <v>786</v>
+      </c>
+      <c r="B87" s="66">
+        <v>170407</v>
+      </c>
+      <c r="C87" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D87" s="65" t="s">
+        <v>810</v>
+      </c>
+      <c r="E87" s="65" t="s">
+        <v>818</v>
+      </c>
+      <c r="F87" s="67" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G87" s="65" t="s">
+        <v>2508</v>
+      </c>
+      <c r="H87" s="65" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="64">
+        <v>787</v>
+      </c>
+      <c r="B88" s="66">
+        <v>170408</v>
+      </c>
+      <c r="C88" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="D88" s="65" t="s">
+        <v>810</v>
+      </c>
+      <c r="E88" s="65" t="s">
+        <v>819</v>
+      </c>
+      <c r="F88" s="67" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G88" s="65" t="s">
+        <v>2508</v>
+      </c>
+      <c r="H88" s="65" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="69">
+        <v>788</v>
+      </c>
+      <c r="B89" s="71" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C89" s="70" t="s">
+        <v>820</v>
+      </c>
+      <c r="D89" s="70" t="s">
+        <v>820</v>
+      </c>
+      <c r="E89" s="70" t="s">
+        <v>820</v>
+      </c>
+      <c r="F89" s="70" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G89" s="70" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H89" s="70" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="78">
+        <v>788</v>
+      </c>
+      <c r="B90" s="83" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C90" s="79" t="s">
+        <v>820</v>
+      </c>
+      <c r="D90" s="79" t="s">
+        <v>820</v>
+      </c>
+      <c r="E90" s="79" t="s">
+        <v>820</v>
+      </c>
+      <c r="F90" s="79" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G90" s="79" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H90" s="79" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="78">
+        <v>789</v>
+      </c>
+      <c r="B91" s="81">
+        <v>180100</v>
+      </c>
+      <c r="C91" s="79" t="s">
+        <v>820</v>
+      </c>
+      <c r="D91" s="79" t="s">
+        <v>821</v>
+      </c>
+      <c r="E91" s="79" t="s">
+        <v>821</v>
+      </c>
+      <c r="F91" s="79" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G91" s="79" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H91" s="79" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="72">
+        <v>790</v>
+      </c>
+      <c r="B92" s="73">
+        <v>180101</v>
+      </c>
+      <c r="C92" s="74" t="s">
+        <v>820</v>
+      </c>
+      <c r="D92" s="74" t="s">
+        <v>821</v>
+      </c>
+      <c r="E92" s="74" t="s">
+        <v>822</v>
+      </c>
+      <c r="F92" s="74" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G92" s="74" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H92" s="74" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="72">
+        <v>791</v>
+      </c>
+      <c r="B93" s="73">
+        <v>180102</v>
+      </c>
+      <c r="C93" s="74" t="s">
+        <v>820</v>
+      </c>
+      <c r="D93" s="74" t="s">
+        <v>821</v>
+      </c>
+      <c r="E93" s="74" t="s">
+        <v>823</v>
+      </c>
+      <c r="F93" s="74" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G93" s="74" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H93" s="74" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="78">
+        <v>792</v>
+      </c>
+      <c r="B94" s="81">
+        <v>180103</v>
+      </c>
+      <c r="C94" s="79" t="s">
+        <v>820</v>
+      </c>
+      <c r="D94" s="79" t="s">
+        <v>821</v>
+      </c>
+      <c r="E94" s="79" t="s">
+        <v>824</v>
+      </c>
+      <c r="F94" s="82" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G94" s="79" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H94" s="79" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="78">
+        <v>793</v>
+      </c>
+      <c r="B95" s="81" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C95" s="79" t="s">
+        <v>820</v>
+      </c>
+      <c r="D95" s="79" t="s">
+        <v>821</v>
+      </c>
+      <c r="E95" s="79" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F95" s="82" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G95" s="79" t="s">
+        <v>2386</v>
+      </c>
+      <c r="H95" s="79" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="78">
+        <v>794</v>
+      </c>
+      <c r="B96" s="81">
+        <v>180200</v>
+      </c>
+      <c r="C96" s="79" t="s">
+        <v>820</v>
+      </c>
+      <c r="D96" s="79" t="s">
+        <v>825</v>
+      </c>
+      <c r="E96" s="79" t="s">
+        <v>825</v>
+      </c>
+      <c r="F96" s="79" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G96" s="79" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H96" s="79" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="78">
+        <v>795</v>
+      </c>
+      <c r="B97" s="81">
+        <v>180201</v>
+      </c>
+      <c r="C97" s="79" t="s">
+        <v>820</v>
+      </c>
+      <c r="D97" s="79" t="s">
+        <v>825</v>
+      </c>
+      <c r="E97" s="79" t="s">
+        <v>826</v>
+      </c>
+      <c r="F97" s="79" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G97" s="79" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H97" s="79" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="78">
+        <v>796</v>
+      </c>
+      <c r="B98" s="81">
+        <v>180202</v>
+      </c>
+      <c r="C98" s="79" t="s">
+        <v>820</v>
+      </c>
+      <c r="D98" s="79" t="s">
+        <v>825</v>
+      </c>
+      <c r="E98" s="79" t="s">
+        <v>827</v>
+      </c>
+      <c r="F98" s="79" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G98" s="79" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H98" s="79" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="78">
+        <v>797</v>
+      </c>
+      <c r="B99" s="81">
+        <v>180203</v>
+      </c>
+      <c r="C99" s="79" t="s">
+        <v>820</v>
+      </c>
+      <c r="D99" s="79" t="s">
+        <v>825</v>
+      </c>
+      <c r="E99" s="79" t="s">
+        <v>828</v>
+      </c>
+      <c r="F99" s="79" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G99" s="79" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H99" s="79" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="78">
+        <v>798</v>
+      </c>
+      <c r="B100" s="81">
+        <v>180300</v>
+      </c>
+      <c r="C100" s="79" t="s">
+        <v>820</v>
+      </c>
+      <c r="D100" s="79" t="s">
+        <v>829</v>
+      </c>
+      <c r="E100" s="79" t="s">
+        <v>830</v>
+      </c>
+      <c r="F100" s="79" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G100" s="79" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H100" s="79" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" s="78">
+        <v>799</v>
+      </c>
+      <c r="B101" s="81">
+        <v>180301</v>
+      </c>
+      <c r="C101" s="79" t="s">
+        <v>820</v>
+      </c>
+      <c r="D101" s="79" t="s">
+        <v>829</v>
+      </c>
+      <c r="E101" s="79" t="s">
+        <v>831</v>
+      </c>
+      <c r="F101" s="79" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G101" s="79" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H101" s="79" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" s="78">
+        <v>800</v>
+      </c>
+      <c r="B102" s="81">
+        <v>180302</v>
+      </c>
+      <c r="C102" s="79" t="s">
+        <v>820</v>
+      </c>
+      <c r="D102" s="79" t="s">
+        <v>829</v>
+      </c>
+      <c r="E102" s="79" t="s">
+        <v>832</v>
+      </c>
+      <c r="F102" s="79" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G102" s="79" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H102" s="79" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="72">
+        <v>801</v>
+      </c>
+      <c r="B103" s="73">
+        <v>180400</v>
+      </c>
+      <c r="C103" s="74" t="s">
+        <v>820</v>
+      </c>
+      <c r="D103" s="74" t="s">
+        <v>833</v>
+      </c>
+      <c r="E103" s="74" t="s">
+        <v>833</v>
+      </c>
+      <c r="F103" s="74" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G103" s="74" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H103" s="74" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104" s="78">
+        <v>802</v>
+      </c>
+      <c r="B104" s="81">
+        <v>180500</v>
+      </c>
+      <c r="C104" s="79" t="s">
+        <v>820</v>
+      </c>
+      <c r="D104" s="79" t="s">
+        <v>834</v>
+      </c>
+      <c r="E104" s="79" t="s">
+        <v>834</v>
+      </c>
+      <c r="F104" s="79" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G104" s="79" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H104" s="79" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="86" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A105" s="84">
+        <v>523</v>
+      </c>
+      <c r="B105" s="89">
+        <v>120000</v>
+      </c>
+      <c r="C105" s="85" t="s">
+        <v>564</v>
+      </c>
+      <c r="D105" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="E105" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="F105" s="88" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G105" s="85" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H105" s="85" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="86" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A106" s="84">
+        <v>524</v>
+      </c>
+      <c r="B106" s="87">
+        <v>120100</v>
+      </c>
+      <c r="C106" s="85" t="s">
+        <v>564</v>
+      </c>
+      <c r="D106" s="85" t="s">
+        <v>566</v>
+      </c>
+      <c r="E106" s="85" t="s">
+        <v>566</v>
+      </c>
+      <c r="F106" s="85" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G106" s="85" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H106" s="85" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="86" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A107" s="84">
+        <v>525</v>
+      </c>
+      <c r="B107" s="87">
+        <v>120200</v>
+      </c>
+      <c r="C107" s="85" t="s">
+        <v>564</v>
+      </c>
+      <c r="D107" s="85" t="s">
+        <v>567</v>
+      </c>
+      <c r="E107" s="85" t="s">
+        <v>568</v>
+      </c>
+      <c r="F107" s="85" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G107" s="85" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H107" s="85" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="86" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A108" s="84">
+        <v>526</v>
+      </c>
+      <c r="B108" s="87">
+        <v>120201</v>
+      </c>
+      <c r="C108" s="85" t="s">
+        <v>564</v>
+      </c>
+      <c r="D108" s="85" t="s">
+        <v>567</v>
+      </c>
+      <c r="E108" s="85" t="s">
+        <v>569</v>
+      </c>
+      <c r="F108" s="85" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G108" s="85" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H108" s="85" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="86" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A109" s="84">
+        <v>527</v>
+      </c>
+      <c r="B109" s="87">
+        <v>120202</v>
+      </c>
+      <c r="C109" s="85" t="s">
+        <v>564</v>
+      </c>
+      <c r="D109" s="85" t="s">
+        <v>567</v>
+      </c>
+      <c r="E109" s="85" t="s">
+        <v>570</v>
+      </c>
+      <c r="F109" s="88" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G109" s="85" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H109" s="85" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="86" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A110" s="84">
+        <v>528</v>
+      </c>
+      <c r="B110" s="87">
+        <v>120203</v>
+      </c>
+      <c r="C110" s="85" t="s">
+        <v>564</v>
+      </c>
+      <c r="D110" s="85" t="s">
+        <v>567</v>
+      </c>
+      <c r="E110" s="85" t="s">
+        <v>571</v>
+      </c>
+      <c r="F110" s="85" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G110" s="85" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H110" s="85" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="86" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A111" s="84">
+        <v>529</v>
+      </c>
+      <c r="B111" s="87">
+        <v>120300</v>
+      </c>
+      <c r="C111" s="85" t="s">
+        <v>564</v>
+      </c>
+      <c r="D111" s="85" t="s">
+        <v>572</v>
+      </c>
+      <c r="E111" s="85" t="s">
+        <v>572</v>
+      </c>
+      <c r="F111" s="85" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G111" s="85" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H111" s="85" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="86" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A112" s="84">
+        <v>530</v>
+      </c>
+      <c r="B112" s="87">
+        <v>120301</v>
+      </c>
+      <c r="C112" s="85" t="s">
+        <v>564</v>
+      </c>
+      <c r="D112" s="85" t="s">
+        <v>572</v>
+      </c>
+      <c r="E112" s="85" t="s">
+        <v>573</v>
+      </c>
+      <c r="F112" s="85" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G112" s="85" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H112" s="85" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="86" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A113" s="84">
+        <v>531</v>
+      </c>
+      <c r="B113" s="87">
+        <v>120302</v>
+      </c>
+      <c r="C113" s="85" t="s">
+        <v>564</v>
+      </c>
+      <c r="D113" s="85" t="s">
+        <v>572</v>
+      </c>
+      <c r="E113" s="85" t="s">
+        <v>574</v>
+      </c>
+      <c r="F113" s="85" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G113" s="85" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H113" s="85" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="86" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A114" s="84">
+        <v>532</v>
+      </c>
+      <c r="B114" s="87">
+        <v>120303</v>
+      </c>
+      <c r="C114" s="85" t="s">
+        <v>564</v>
+      </c>
+      <c r="D114" s="85" t="s">
+        <v>572</v>
+      </c>
+      <c r="E114" s="85" t="s">
+        <v>575</v>
+      </c>
+      <c r="F114" s="85" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G114" s="85" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H114" s="85" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="86" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A115" s="84">
+        <v>533</v>
+      </c>
+      <c r="B115" s="87">
+        <v>120304</v>
+      </c>
+      <c r="C115" s="85" t="s">
+        <v>564</v>
+      </c>
+      <c r="D115" s="85" t="s">
+        <v>572</v>
+      </c>
+      <c r="E115" s="85" t="s">
+        <v>576</v>
+      </c>
+      <c r="F115" s="85" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G115" s="85" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H115" s="85" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="92" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A116" s="90">
+        <v>595</v>
+      </c>
+      <c r="B116" s="95" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C116" s="91" t="s">
+        <v>624</v>
+      </c>
+      <c r="D116" s="91" t="s">
+        <v>644</v>
+      </c>
+      <c r="E116" s="91" t="s">
+        <v>644</v>
+      </c>
+      <c r="F116" s="91" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G116" s="91" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H116" s="91" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="92" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A117" s="90">
+        <v>596</v>
+      </c>
+      <c r="B117" s="93">
+        <v>141201</v>
+      </c>
+      <c r="C117" s="91" t="s">
+        <v>624</v>
+      </c>
+      <c r="D117" s="91" t="s">
+        <v>644</v>
+      </c>
+      <c r="E117" s="91" t="s">
+        <v>645</v>
+      </c>
+      <c r="F117" s="94" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G117" s="91" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H117" s="91" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="92" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A118" s="90">
+        <v>597</v>
+      </c>
+      <c r="B118" s="93">
+        <v>141202</v>
+      </c>
+      <c r="C118" s="91" t="s">
+        <v>624</v>
+      </c>
+      <c r="D118" s="91" t="s">
+        <v>644</v>
+      </c>
+      <c r="E118" s="91" t="s">
+        <v>646</v>
+      </c>
+      <c r="F118" s="91" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G118" s="91" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H118" s="91" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="92" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A119" s="90">
+        <v>598</v>
+      </c>
+      <c r="B119" s="93">
+        <v>141203</v>
+      </c>
+      <c r="C119" s="91" t="s">
+        <v>624</v>
+      </c>
+      <c r="D119" s="91" t="s">
+        <v>644</v>
+      </c>
+      <c r="E119" s="91" t="s">
+        <v>647</v>
+      </c>
+      <c r="F119" s="91" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G119" s="91" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H119" s="91" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="92" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A120" s="90">
+        <v>599</v>
+      </c>
+      <c r="B120" s="93" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C120" s="91" t="s">
+        <v>624</v>
+      </c>
+      <c r="D120" s="91" t="s">
+        <v>644</v>
+      </c>
+      <c r="E120" s="91" t="s">
+        <v>648</v>
+      </c>
+      <c r="F120" s="91" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G120" s="91" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H120" s="91" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="92" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A121" s="90">
+        <v>600</v>
+      </c>
+      <c r="B121" s="93">
+        <v>141205</v>
+      </c>
+      <c r="C121" s="91" t="s">
+        <v>624</v>
+      </c>
+      <c r="D121" s="91" t="s">
+        <v>644</v>
+      </c>
+      <c r="E121" s="91" t="s">
+        <v>649</v>
+      </c>
+      <c r="F121" s="91" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G121" s="91" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H121" s="91" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="92" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A122" s="90">
+        <v>601</v>
+      </c>
+      <c r="B122" s="93">
+        <v>141206</v>
+      </c>
+      <c r="C122" s="91" t="s">
+        <v>624</v>
+      </c>
+      <c r="D122" s="91" t="s">
+        <v>644</v>
+      </c>
+      <c r="E122" s="91" t="s">
+        <v>650</v>
+      </c>
+      <c r="F122" s="91" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G122" s="91" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H122" s="91" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="92" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A123" s="90">
+        <v>602</v>
+      </c>
+      <c r="B123" s="93">
+        <v>141207</v>
+      </c>
+      <c r="C123" s="91" t="s">
+        <v>624</v>
+      </c>
+      <c r="D123" s="91" t="s">
+        <v>644</v>
+      </c>
+      <c r="E123" s="91" t="s">
+        <v>651</v>
+      </c>
+      <c r="F123" s="94" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G123" s="91" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H123" s="91" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="92" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A124" s="90">
+        <v>603</v>
+      </c>
+      <c r="B124" s="93">
+        <v>141300</v>
+      </c>
+      <c r="C124" s="91" t="s">
+        <v>624</v>
+      </c>
+      <c r="D124" s="91" t="s">
+        <v>652</v>
+      </c>
+      <c r="E124" s="91" t="s">
+        <v>652</v>
+      </c>
+      <c r="F124" s="94" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G124" s="91" t="s">
+        <v>1508</v>
+      </c>
+      <c r="H124" s="91" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="92" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A125" s="90">
+        <v>604</v>
+      </c>
+      <c r="B125" s="93">
+        <v>141400</v>
+      </c>
+      <c r="C125" s="91" t="s">
+        <v>624</v>
+      </c>
+      <c r="D125" s="91" t="s">
+        <v>653</v>
+      </c>
+      <c r="E125" s="91" t="s">
+        <v>653</v>
+      </c>
+      <c r="F125" s="91" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G125" s="91" t="s">
+        <v>1509</v>
+      </c>
+      <c r="H125" s="91" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="92" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A126" s="90">
+        <v>605</v>
+      </c>
+      <c r="B126" s="93">
+        <v>141500</v>
+      </c>
+      <c r="C126" s="91" t="s">
+        <v>624</v>
+      </c>
+      <c r="D126" s="91" t="s">
+        <v>654</v>
+      </c>
+      <c r="E126" s="91" t="s">
+        <v>654</v>
+      </c>
+      <c r="F126" s="91" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G126" s="91" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H126" s="91" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>